--- a/src/main/resources/template/excel/export/DeliverFormDY.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDY.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>要货申请单</t>
   </si>
@@ -100,9 +100,6 @@
     <t>当前库存</t>
   </si>
   <si>
-    <t>缺货数</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>${obj.sourceStock}</t>
-  </si>
-  <si>
-    <t>${obj.defectNum}</t>
   </si>
   <si>
     <t>${obj.remark}</t>
@@ -169,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
@@ -272,13 +266,13 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -299,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -585,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,31 +590,30 @@
     <col min="1" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="14" width="12.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.625" customWidth="1"/>
-    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="7" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -663,85 +656,78 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="4" t="s">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/DeliverFormDY.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDY.xlsx
@@ -139,9 +139,6 @@
     <t>${obj.taxAmount}</t>
   </si>
   <si>
-    <t>${obj.sourceStock}</t>
-  </si>
-  <si>
     <t>${obj.remark}</t>
   </si>
   <si>
@@ -157,6 +154,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.targetStock}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +583,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,15 +696,15 @@
         <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -711,14 +712,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>

--- a/src/main/resources/template/excel/export/DeliverFormDY.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,9 +58,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>要货申请单</t>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -158,13 +155,17 @@
   </si>
   <si>
     <t>${obj.targetStock}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}直送要货单</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
@@ -282,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -294,14 +363,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -583,7 +652,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -616,95 +685,95 @@
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -712,14 +781,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>

--- a/src/main/resources/template/excel/export/DeliverFormDY.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P4")</t>
+          <t>jx:area(lastCell="O4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>货号</t>
   </si>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>${branchName}直送要货单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.isGiftDesc}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -283,74 +291,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,7 +310,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -649,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,12 +600,12 @@
     <col min="1" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.625" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
+    <col min="7" max="14" width="12.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.625" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
@@ -682,8 +622,9 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,10 +665,13 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -767,11 +711,14 @@
       <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -794,10 +741,11 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
